--- a/ParametricGraph/BenchRozenbrokM.xlsx
+++ b/ParametricGraph/BenchRozenbrokM.xlsx
@@ -387,7 +387,7 @@
   <dimension ref="A1:S205"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -433,7 +433,7 @@
     </row>
     <row r="2" spans="1:19">
       <c r="A2">
-        <v>9801</v>
+        <v>9802</v>
       </c>
       <c r="B2">
         <f>201*201</f>
